--- a/JOHN TAUTA.xlsx
+++ b/JOHN TAUTA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="670" firstSheet="32" activeTab="40"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="670" firstSheet="36" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="JULY" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,12 @@
     <sheet name="NOVEMBER 21" sheetId="41" r:id="rId41"/>
     <sheet name="DECEMBER 21" sheetId="42" r:id="rId42"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="213">
   <si>
     <t xml:space="preserve">NO. </t>
   </si>
@@ -692,11 +692,14 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
+  <si>
+    <t>PAID ON 13/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -950,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,7 +988,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32987,7 +32990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -33872,8 +33875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L36" sqref="L35:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34505,7 +34508,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" s="35">
         <f>E25</f>
@@ -34514,7 +34517,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G30" s="35">
         <f>G25</f>
@@ -34617,13 +34620,21 @@
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>1782</v>
+      </c>
       <c r="E36" s="34"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>1782</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -34696,11 +34707,11 @@
       </c>
       <c r="D43" s="41">
         <f>SUM(D35:D42)</f>
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="E43" s="41">
         <f>C43-D43</f>
-        <v>42570</v>
+        <v>40788</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>23</v>
@@ -34711,11 +34722,11 @@
       </c>
       <c r="H43" s="41">
         <f>SUM(H35:H42)</f>
-        <v>0</v>
+        <v>1782</v>
       </c>
       <c r="I43" s="41">
         <f>G43-H43</f>
-        <v>-930</v>
+        <v>-2712</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
